--- a/entender modelos.xlsx
+++ b/entender modelos.xlsx
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -323,6 +323,9 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -843,13 +846,13 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="1"/>
       <c r="J9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="1"/>
@@ -886,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="1"/>
@@ -923,11 +926,11 @@
         <v>32</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="1"/>
@@ -960,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="M12" s="1"/>
@@ -997,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="1"/>
@@ -1034,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="18" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="1"/>
@@ -1187,7 +1190,7 @@
       <c r="E19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
